--- a/use_cases/usecase 목록.xlsx
+++ b/use_cases/usecase 목록.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpemt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/697f485fc7585804/Desktop/소프트웨어공학/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5687351D-1E2A-490D-A929-3D4AC98B686D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{5687351D-1E2A-490D-A929-3D4AC98B686D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0D4519CC-39EA-469D-B656-047DD183D9B6}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="680" windowWidth="11980" windowHeight="7360" xr2:uid="{94DFB889-267E-4A27-9A6C-331E3741C5CB}"/>
+    <workbookView xWindow="-1070" yWindow="220" windowWidth="12670" windowHeight="7340" xr2:uid="{94DFB889-267E-4A27-9A6C-331E3741C5CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
-    <t>UC-12</t>
-  </si>
-  <si>
     <t>UC-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,9 +58,6 @@
     <t>UC-10</t>
   </si>
   <si>
-    <t>UC-11</t>
-  </si>
-  <si>
     <t>UC-ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,67 +74,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>center 회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉사자 회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>center 정보 업데이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉사자 정보 업데이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉사 예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자원봉사자 구인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>center 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉사자 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자가 회원가입하는 과정 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>center가 로그인 하는 기능을 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센터 로그인, 봉사자 로그인 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 center 회원가입하는 과정 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 봉사자 회원가입하는 과정 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volunteer가 로그인 하는 기능을 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Center 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volunteer 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-04</t>
+  </si>
+  <si>
+    <t>UC-05</t>
+  </si>
+  <si>
     <t>UC-06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>center가 로그인 하는 기능을 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉사자가 로그인 하는 기능을 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>센터 로그인, 봉사자 로그인 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 center 회원가입하는 과정 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 봉사자 회원가입하는 과정 설명</t>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volunteer 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Center 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volunteer 예약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Center 정보 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volunteer 회원정보 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volunteer 구인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,123 +517,123 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.08203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.08203125" customWidth="1"/>
     <col min="3" max="3" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
